--- a/public/assets/reports/score.xlsx
+++ b/public/assets/reports/score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\WeaverCRM\public\assets\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CF7BDD-FDD8-4608-8305-E607A9F61B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F986D7C-20E4-4146-82E6-2CCCA1E0AC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{10A5D498-53C4-4159-9294-E43785AF4EA2}"/>
   </bookViews>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>EXAM RESULT</t>
   </si>
@@ -185,13 +175,210 @@
   </si>
   <si>
     <t>score_total</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CLASSROOM BEHAVIOUR </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(thái độ học tập)</t>
+    </r>
+  </si>
+  <si>
+    <t>Evaluation criteria</t>
+  </si>
+  <si>
+    <t>(tiêu chí đánh giá)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Explanation of scaled scores </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(giải thích thang điểm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) Participation: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFED7D31"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pptime</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/pptotal
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Số ngày tham gia lớp học</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Coming to class fully prepared (textbook, notebook, handouts)
+Chuẩn bị đầy đủ khi đến lớp (sách, vở, tài liệu học)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Punctuality (be on-time, observe classroom rules)
+Đúng giờ (đúng giờ, tuân theo quy định lớp học)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Respect towards teachers and school staff
+Tôn trọng giáo viên và nhân viên ở trường</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Attention to lessons
+Chú ý vào bài học</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Contribution to group activities
+Đóng góp cho các hoạt động của nhóm </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> On-task (exercises, homework)
+Tập trung làm bài tập trên lớp, hoàn thành bài tập về nhà</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Respect towards and cooperation with peers
+Tôn trọng và hợp tác với bạn học</t>
+    </r>
+  </si>
+  <si>
+    <t>3 – fair
+(khá)</t>
+  </si>
+  <si>
+    <t>4 – good
+(tốt)</t>
+  </si>
+  <si>
+    <t>5 – very good
+(rất tốt)</t>
+  </si>
+  <si>
+    <t>2 – need improvement
+(cần cải thiện)</t>
+  </si>
+  <si>
+    <t>1 – not good
+(chưa tốt)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,20 +434,61 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFED7D31"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,8 +507,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -396,11 +630,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFBE4D5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFBE4D5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFBE4D5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFBE4D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFBE4D5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFBE4D5"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFBE4D5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFBE4D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFBE4D5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFBE4D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFBE4D5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFBE4D5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFBE4D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFBE4D5"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFBE4D5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFBE4D5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFBE4D5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFBE4D5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFBE4D5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFBE4D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFBE4D5"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFBE4D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFBE4D5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFBE4D5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFBE4D5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFBE4D5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFBE4D5"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFBE4D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFBE4D5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -414,13 +797,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -438,43 +821,190 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -486,6 +1016,8 @@
   <colors>
     <mruColors>
       <color rgb="FFFBE4D5"/>
+      <color rgb="FFFF0000"/>
+      <color rgb="FFED7D31"/>
     </mruColors>
   </colors>
   <extLst>
@@ -504,15 +1036,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38288</xdr:colOff>
+      <xdr:colOff>67596</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>171085</xdr:rowOff>
+      <xdr:rowOff>34511</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1264996</xdr:colOff>
+      <xdr:colOff>1226412</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>52552</xdr:rowOff>
+      <xdr:rowOff>123092</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -541,8 +1073,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38288" y="171085"/>
-          <a:ext cx="1226708" cy="1205770"/>
+          <a:off x="67596" y="34511"/>
+          <a:ext cx="1158816" cy="1167104"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -851,41 +1383,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330AD7AC-DA17-4272-A350-8A63F40554FF}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:G6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.09765625" customWidth="1"/>
-    <col min="2" max="7" width="15.69921875" customWidth="1"/>
+    <col min="2" max="9" width="11.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+    </row>
+    <row r="2" spans="1:9" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+    </row>
+    <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -893,29 +1429,33 @@
       <c r="C3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="48"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="49"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="11"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
@@ -923,200 +1463,568 @@
       <c r="C5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="48"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="3" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="11"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="48"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="49"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="G8" s="11"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="18"/>
+      <c r="G10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="69" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="I10" s="40"/>
+    </row>
+    <row r="11" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="38" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="I11" s="39"/>
+    </row>
+    <row r="12" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="12"/>
+      <c r="G12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="H12" s="41" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="I12" s="70"/>
+    </row>
+    <row r="13" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="22"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="70"/>
+    </row>
+    <row r="14" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="28"/>
+      <c r="G14" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="H14" s="42" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="I14" s="71"/>
+    </row>
+    <row r="15" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="18"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="73"/>
+    </row>
+    <row r="17" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+    </row>
+    <row r="18" spans="1:9" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
+    </row>
+    <row r="19" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="65"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="68"/>
+    </row>
+    <row r="20" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="19">
+        <v>1</v>
+      </c>
+      <c r="F20" s="29">
+        <v>2</v>
+      </c>
+      <c r="G20" s="19">
+        <v>3</v>
+      </c>
+      <c r="H20" s="29">
+        <v>4</v>
+      </c>
+      <c r="I20" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+    </row>
+    <row r="25" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+    </row>
+    <row r="26" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+    </row>
+    <row r="27" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+    </row>
+    <row r="28" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+    </row>
+    <row r="29" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="25"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+    </row>
+    <row r="30" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+    </row>
+    <row r="31" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+    </row>
+    <row r="33" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+    </row>
+    <row r="34" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="1:9" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+    </row>
+    <row r="37" spans="1:9" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="60"/>
+      <c r="D37" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="60"/>
+      <c r="F37" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="60"/>
+      <c r="H37" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="I37" s="60"/>
+    </row>
+    <row r="38" spans="1:9" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="61"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="83">
+    <mergeCell ref="D18:I19"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="D37:E38"/>
+    <mergeCell ref="F37:G38"/>
+    <mergeCell ref="H37:I38"/>
+    <mergeCell ref="B37:C38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="A26:D27"/>
+    <mergeCell ref="A28:D29"/>
+    <mergeCell ref="A30:D31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="H14:I15"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
     <mergeCell ref="A1:A8"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="C5:D6"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="F3:G4"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="G7:I8"/>
+    <mergeCell ref="C3:E4"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A18:C19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="A34:D35"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/assets/reports/score.xlsx
+++ b/public/assets/reports/score.xlsx
@@ -8,13 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\WeaverCRM\public\assets\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F986D7C-20E4-4146-82E6-2CCCA1E0AC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20ABE6A7-021C-409C-B95C-01C0E21E5D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{10A5D498-53C4-4159-9294-E43785AF4EA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mid1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Mid1'!$A$1:$I$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$38</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="94">
   <si>
     <t>EXAM RESULT</t>
   </si>
@@ -169,9 +175,6 @@
   </si>
   <si>
     <t>score5</t>
-  </si>
-  <si>
-    <t>correct_total</t>
   </si>
   <si>
     <t>score_total</t>
@@ -373,12 +376,226 @@
     <t>1 – not good
 (chưa tốt)</t>
   </si>
+  <si>
+    <t>(Kì thi)</t>
+  </si>
+  <si>
+    <t>Số ngày tham gia lớp học</t>
+  </si>
+  <si>
+    <r>
+      <t>2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Coming to class fully prepared (textbook, notebook, handouts)</t>
+    </r>
+  </si>
+  <si>
+    <t>Chuẩn bị đầy đủ khi đến lớp (sách, vở, tài liệu học)</t>
+  </si>
+  <si>
+    <r>
+      <t>3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Punctuality (be on-time, observe classroom rules)</t>
+    </r>
+  </si>
+  <si>
+    <t>Đúng giờ (đúng giờ, tuân theo quy định lớp học)</t>
+  </si>
+  <si>
+    <r>
+      <t>4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Respect towards teachers and school staff</t>
+    </r>
+  </si>
+  <si>
+    <t>Tôn trọng giáo viên và nhân viên ở trường</t>
+  </si>
+  <si>
+    <r>
+      <t>5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Attention to lessons</t>
+    </r>
+  </si>
+  <si>
+    <t>Chú ý vào bài học</t>
+  </si>
+  <si>
+    <r>
+      <t>6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Contribution to group activities</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Đóng góp cho các hoạt động của nhóm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> On-task (exercises, homework)</t>
+    </r>
+  </si>
+  <si>
+    <t>Tập trung làm bài tập trên lớp, hoàn thành bài tập về nhà</t>
+  </si>
+  <si>
+    <r>
+      <t>8)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Respect towards and cooperation with peers</t>
+    </r>
+  </si>
+  <si>
+    <t>Tôn trọng và hợp tác với bạn học</t>
+  </si>
+  <si>
+    <t>1 – not good</t>
+  </si>
+  <si>
+    <t>(chưa tốt)</t>
+  </si>
+  <si>
+    <t>2 – need improvement</t>
+  </si>
+  <si>
+    <t>(cần cải thiện)</t>
+  </si>
+  <si>
+    <t>3 – fair</t>
+  </si>
+  <si>
+    <t>(khá)</t>
+  </si>
+  <si>
+    <t>4 – good</t>
+  </si>
+  <si>
+    <t>(tốt)</t>
+  </si>
+  <si>
+    <t>5 – very good</t>
+  </si>
+  <si>
+    <t>(rất tốt)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TEACHER’S COMMENT </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(nhận xét của giao viên)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Days attended: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFED7D31"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pptime/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pptotal</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,12 +640,6 @@
     <font>
       <i/>
       <sz val="6.5"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -487,8 +698,66 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="6.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFED7D31"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,8 +782,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE97132"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAE2D5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE5D5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -779,11 +1072,249 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFAE2D5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFAE2D5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFAE2D5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFAE2D5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFAE2D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFAE2D5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFAE2D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFAE2D5"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFAE2D5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFAE2D5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFAE2D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFAE2D5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFAE2D5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFAE2D5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFAE2D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFBE5D5"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFBE5D5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFBE5D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFBE5D5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFBE5D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFBE5D5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFBE5D5"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFBE5D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFBE5D5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFBE5D5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFBE5D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFBE5D5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFBE5D5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFBE5D5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFBE5D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFBE5D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFBE5D5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFBE5D5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFBE5D5"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFBE5D5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFBE5D5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFBE5D5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFBE5D5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFBE5D5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFBE5D5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFBE5D5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFAE2D5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -806,148 +1337,22 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -956,55 +1361,382 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1036,15 +1768,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>67596</xdr:colOff>
+      <xdr:colOff>59976</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>34511</xdr:rowOff>
+      <xdr:rowOff>57371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1226412</xdr:colOff>
+      <xdr:colOff>908362</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>123092</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1073,12 +1805,205 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="67596" y="34511"/>
-          <a:ext cx="1158816" cy="1167104"/>
+          <a:off x="59976" y="57371"/>
+          <a:ext cx="848386" cy="857029"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>40234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1501140</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 739531987" descr="Icon&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B2B7EAA-BB9E-C1E4-B5BC-A4D7FDCF8E59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="68580" y="40234"/>
+          <a:ext cx="1432560" cy="1354226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>40234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1501140</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 739531987" descr="Icon&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{450F27D3-1B50-44D8-AE70-6939706C82C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="68580" y="40234"/>
+          <a:ext cx="1432560" cy="1354226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>40234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1501140</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 739531987" descr="Icon&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD3564C-55DA-432A-AAA9-5526CF4B052D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="68580" y="40234"/>
+          <a:ext cx="1432560" cy="1354226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1385,559 +2310,623 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{330AD7AC-DA17-4272-A350-8A63F40554FF}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:I19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.09765625" customWidth="1"/>
+    <col min="1" max="1" width="12.69921875" customWidth="1"/>
     <col min="2" max="9" width="11.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:9" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="62"/>
+      <c r="B1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-    </row>
-    <row r="2" spans="1:9" ht="13.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="44" t="s">
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+    </row>
+    <row r="2" spans="1:9" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="62"/>
+      <c r="B2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-    </row>
-    <row r="3" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+    </row>
+    <row r="3" spans="1:9" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="10"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="1:9" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="62"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="12"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="1:9" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="62"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="10"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="1:9" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="62"/>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="12"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="1:9" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="62"/>
       <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="10"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
+    </row>
+    <row r="8" spans="1:9" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="62"/>
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="12"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="12"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="69" t="s">
+      <c r="H10" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="40"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="39"/>
+      <c r="I11" s="43"/>
     </row>
     <row r="12" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="14" t="s">
+      <c r="F12" s="33"/>
+      <c r="G12" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="70"/>
+      <c r="I12" s="45"/>
     </row>
     <row r="13" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="70"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
     </row>
     <row r="14" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="31" t="s">
+      <c r="F14" s="39"/>
+      <c r="G14" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+    </row>
+    <row r="15" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="47"/>
+    </row>
+    <row r="17" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="71"/>
-    </row>
-    <row r="15" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="73"/>
-    </row>
-    <row r="17" spans="1:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
     </row>
     <row r="18" spans="1:9" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="24"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="55"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="65"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="68"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
     </row>
     <row r="20" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="19">
+      <c r="A20" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="67">
         <v>1</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="54">
         <v>2</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="67">
         <v>3</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H20" s="54">
         <v>4</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I20" s="54">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="52"/>
       <c r="C21" s="52"/>
       <c r="D21" s="53"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
     </row>
     <row r="22" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
     </row>
     <row r="23" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
     </row>
     <row r="24" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
       <c r="D24" s="24"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
     </row>
     <row r="25" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
     </row>
     <row r="26" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
       <c r="D26" s="24"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
     </row>
     <row r="27" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25"/>
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="27"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
     </row>
     <row r="28" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
       <c r="D28" s="24"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
     </row>
     <row r="29" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
       <c r="D29" s="27"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
     </row>
     <row r="30" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
     </row>
     <row r="31" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
       <c r="D31" s="27"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
     </row>
     <row r="32" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
       <c r="D32" s="24"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
     </row>
     <row r="33" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="27"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
     </row>
     <row r="34" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
       <c r="D34" s="24"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
     </row>
     <row r="35" spans="1:9" ht="10.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="25"/>
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="27"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
     </row>
     <row r="36" spans="1:9" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
+      <c r="A36" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
     </row>
     <row r="37" spans="1:9" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="59" t="s">
+      <c r="A37" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="59" t="s">
+      <c r="B37" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="59" t="s">
+      <c r="G37" s="17"/>
+      <c r="H37" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G37" s="60"/>
-      <c r="H37" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="I37" s="60"/>
+      <c r="I37" s="17"/>
     </row>
     <row r="38" spans="1:9" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="61"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="63"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
+  <mergeCells count="82">
+    <mergeCell ref="A34:D35"/>
+    <mergeCell ref="H12:I15"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A18:C19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A1:A8"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="G7:I8"/>
+    <mergeCell ref="C3:E4"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="C5:E6"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F13"/>
     <mergeCell ref="D18:I19"/>
     <mergeCell ref="A36:I36"/>
     <mergeCell ref="D37:E38"/>
@@ -1950,81 +2939,1633 @@
     <mergeCell ref="A28:D29"/>
     <mergeCell ref="A30:D31"/>
     <mergeCell ref="A32:D33"/>
-    <mergeCell ref="C5:E6"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="H14:I15"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A22:D23"/>
     <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B12:B13"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C44C58-DBAD-4D87-8503-BD5B844FED03}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="76"/>
+      <c r="B1" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="76"/>
+      <c r="B2" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+    </row>
+    <row r="3" spans="1:9" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="76"/>
+      <c r="B3" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="113" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="76"/>
+      <c r="B4" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="76"/>
+      <c r="B5" s="113" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="76"/>
+      <c r="B6" s="114" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="114" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="1:9" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="76"/>
+      <c r="B7" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="76"/>
+      <c r="B8" s="114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="114" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="74"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="137" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="137"/>
+      <c r="C10" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="138" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="138"/>
+      <c r="C11" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="114" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="138" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="137" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="137"/>
+      <c r="C12" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="139" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="140"/>
+      <c r="I12" s="141"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="138" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="138"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="144"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="137"/>
+      <c r="C14" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="142"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="144"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="138" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="138"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="147"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="74"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="74"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="79"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="131" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="132"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="128"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="133" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="130"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="83">
+        <v>1</v>
+      </c>
+      <c r="F21" s="83">
+        <v>2</v>
+      </c>
+      <c r="G21" s="83">
+        <v>3</v>
+      </c>
+      <c r="H21" s="85">
+        <v>4</v>
+      </c>
+      <c r="I21" s="83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="118" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="84"/>
+    </row>
+    <row r="23" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="122"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="124" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="125"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+    </row>
+    <row r="25" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="124" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+    </row>
+    <row r="27" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="89"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="124" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="125"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="90"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="121" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+    </row>
+    <row r="30" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="124" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="122"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="89"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="125"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="90"/>
+    </row>
+    <row r="33" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="122"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="87"/>
+    </row>
+    <row r="34" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="125"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="88"/>
+    </row>
+    <row r="35" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="121" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="122"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="89"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="125"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="90"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="93"/>
+    </row>
+    <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="111" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="94"/>
+      <c r="D38" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" s="94"/>
+      <c r="H38" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="I38" s="95"/>
+    </row>
+    <row r="39" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="112" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="I39" s="97"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="75"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+    </row>
+    <row r="41" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="73"/>
+    </row>
+    <row r="42" spans="1:9" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="105"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="106"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="115"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="117"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="100"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="99"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="100"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="98"/>
+      <c r="H45" s="98"/>
+      <c r="I45" s="99"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="100"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="98"/>
+      <c r="I46" s="99"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="100"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="98"/>
+      <c r="H47" s="98"/>
+      <c r="I47" s="99"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="100"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="98"/>
+      <c r="I48" s="99"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="100"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="98"/>
+      <c r="I49" s="99"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="100"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="98"/>
+      <c r="G50" s="98"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="99"/>
+    </row>
+    <row r="51" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="101"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="102"/>
+      <c r="H51" s="102"/>
+      <c r="I51" s="103"/>
+    </row>
+  </sheetData>
+  <mergeCells count="95">
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="G12:I15"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="G3:I4"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="G7:I8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="C3:E4"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A1:A8"/>
+    <mergeCell ref="C5:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="89" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCC683B5-3823-478B-919A-DBEFD369BD29}">
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="76"/>
+      <c r="B1" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="76"/>
+      <c r="B2" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+    </row>
+    <row r="3" spans="1:9" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="76"/>
+      <c r="B3" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="113" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="76"/>
+      <c r="B4" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="114" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="76"/>
+      <c r="B5" s="113" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="113" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="76"/>
+      <c r="B6" s="114" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="114" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="1:9" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="76"/>
+      <c r="B7" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="76"/>
+      <c r="B8" s="114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="114" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="33"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="74"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="137" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="137"/>
+      <c r="C10" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="113" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="138" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="138"/>
+      <c r="C11" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="114" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="138" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="137" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="137"/>
+      <c r="C12" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="139" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="140"/>
+      <c r="I12" s="141"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="138" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="138"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="144"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="137"/>
+      <c r="C14" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="142"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="144"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="138" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="138"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="147"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="74"/>
+    </row>
+    <row r="17" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="74"/>
+    </row>
+    <row r="18" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="79"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="131" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="132"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="128"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="133" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="130"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="83">
+        <v>1</v>
+      </c>
+      <c r="F21" s="83">
+        <v>2</v>
+      </c>
+      <c r="G21" s="83">
+        <v>3</v>
+      </c>
+      <c r="H21" s="85">
+        <v>4</v>
+      </c>
+      <c r="I21" s="83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="118" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="84"/>
+    </row>
+    <row r="23" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="121" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="122"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="124" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="125"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+    </row>
+    <row r="25" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="124" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+    </row>
+    <row r="27" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="89"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="124" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="125"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="90"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="121" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+    </row>
+    <row r="30" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="124" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="126"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="122"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="89"/>
+    </row>
+    <row r="32" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="125"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="126"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="90"/>
+    </row>
+    <row r="33" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="121" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="122"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="87"/>
+    </row>
+    <row r="34" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="125"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="126"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="88"/>
+    </row>
+    <row r="35" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="121" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="122"/>
+      <c r="C35" s="122"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="89"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="125"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="90"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="93"/>
+    </row>
+    <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="111" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="94"/>
+      <c r="D38" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" s="94"/>
+      <c r="H38" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="I38" s="95"/>
+    </row>
+    <row r="39" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="112" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="96" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="I39" s="97"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="75"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+    </row>
+    <row r="41" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="73"/>
+    </row>
+    <row r="42" spans="1:9" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="105"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="106"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="115"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="117"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="100"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="99"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="100"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="98"/>
+      <c r="H45" s="98"/>
+      <c r="I45" s="99"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="100"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="98"/>
+      <c r="I46" s="99"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="100"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="98"/>
+      <c r="H47" s="98"/>
+      <c r="I47" s="99"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="100"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="98"/>
+      <c r="I48" s="99"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="100"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="98"/>
+      <c r="I49" s="99"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="100"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="98"/>
+      <c r="G50" s="98"/>
+      <c r="H50" s="98"/>
+      <c r="I50" s="99"/>
+    </row>
+    <row r="51" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="101"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="102"/>
+      <c r="H51" s="102"/>
+      <c r="I51" s="103"/>
+    </row>
+  </sheetData>
+  <mergeCells count="95">
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:I15"/>
     <mergeCell ref="A1:A8"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:E4"/>
     <mergeCell ref="G3:I4"/>
+    <mergeCell ref="C5:E6"/>
     <mergeCell ref="G5:I6"/>
+    <mergeCell ref="C7:E8"/>
     <mergeCell ref="G7:I8"/>
-    <mergeCell ref="C3:E4"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A18:C19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="A34:D35"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>